--- a/reports/Debug-snowbowl-20251217/For The Week Ending (Actual)_Visits.xlsx
+++ b/reports/Debug-snowbowl-20251217/For The Week Ending (Actual)_Visits.xlsx
@@ -34,13 +34,13 @@
     <t>Snowbowl Comp Tickets</t>
   </si>
   <si>
+    <t>Snowbowl Uplift Tickets</t>
+  </si>
+  <si>
     <t>Snowbowl Passes</t>
   </si>
   <si>
     <t>Snowbowl Tickets</t>
-  </si>
-  <si>
-    <t>Snowbowl Uplift Tickets</t>
   </si>
 </sst>
 </file>
@@ -434,10 +434,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>46008</v>
+        <v>46007</v>
       </c>
       <c r="C2" s="2">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>46006</v>
+        <v>46008</v>
       </c>
       <c r="C3" s="2">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -462,13 +462,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>46006</v>
+        <v>46007</v>
       </c>
       <c r="C4" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -476,13 +476,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>46008</v>
+        <v>46007</v>
       </c>
       <c r="C5" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -490,13 +490,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="C6" s="2">
-        <v>6</v>
+        <v>596</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -504,13 +504,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="C7" s="2">
-        <v>90</v>
+        <v>1505</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -518,13 +518,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="2">
-        <v>46008</v>
+        <v>46007</v>
       </c>
       <c r="C8" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -532,13 +532,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="2">
-        <v>46008</v>
+        <v>46007</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="2">
-        <v>46006</v>
+        <v>46008</v>
       </c>
       <c r="C10" s="2">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -560,13 +560,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>46006</v>
+        <v>46008</v>
       </c>
       <c r="C11" s="2">
-        <v>661</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -574,10 +574,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>46007</v>
+        <v>46006</v>
       </c>
       <c r="C12" s="2">
-        <v>1414</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>7</v>
@@ -588,13 +588,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="2">
-        <v>46008</v>
+        <v>46007</v>
       </c>
       <c r="C13" s="2">
-        <v>4</v>
+        <v>574</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -605,10 +605,10 @@
         <v>46008</v>
       </c>
       <c r="C14" s="2">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -616,13 +616,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="2">
-        <v>46007</v>
+        <v>46006</v>
       </c>
       <c r="C15" s="2">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -630,13 +630,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="2">
-        <v>46007</v>
+        <v>46006</v>
       </c>
       <c r="C16" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -644,13 +644,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -658,13 +658,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="2">
-        <v>46008</v>
+        <v>46006</v>
       </c>
       <c r="C18" s="2">
-        <v>596</v>
+        <v>71</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -672,10 +672,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="2">
-        <v>46008</v>
+        <v>46006</v>
       </c>
       <c r="C19" s="2">
-        <v>1505</v>
+        <v>661</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>7</v>
@@ -686,13 +686,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="2">
-        <v>46006</v>
+        <v>46007</v>
       </c>
       <c r="C20" s="2">
-        <v>5</v>
+        <v>1414</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -700,10 +700,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="2">
-        <v>46006</v>
+        <v>46008</v>
       </c>
       <c r="C21" s="2">
-        <v>1389</v>
+        <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>7</v>
@@ -714,13 +714,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="2">
-        <v>46006</v>
+        <v>46008</v>
       </c>
       <c r="C22" s="2">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -728,13 +728,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="2">
-        <v>46007</v>
+        <v>46006</v>
       </c>
       <c r="C23" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -742,13 +742,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="2">
-        <v>46008</v>
+        <v>46006</v>
       </c>
       <c r="C24" s="2">
-        <v>82</v>
+        <v>1389</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -759,7 +759,7 @@
         <v>46006</v>
       </c>
       <c r="C25" s="2">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
@@ -773,10 +773,10 @@
         <v>46007</v>
       </c>
       <c r="C26" s="2">
-        <v>574</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -787,10 +787,10 @@
         <v>46008</v>
       </c>
       <c r="C27" s="2">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
